--- a/PRODUTOS/Perfumaria/Perfumaria - Cuidados com cabelo.xlsx
+++ b/PRODUTOS/Perfumaria/Perfumaria - Cuidados com cabelo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E310"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Shampoo Seda 325ml Pureza Refrescante</t>
+          <t>Condicionador Palmolive 350ml Maciez Prolong</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ebb076c7-e966-4051-93e1-f7d861f45091.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/258adab5-838b-4258-8ae2-a2303a05fe0b.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891024172339</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Shampoo Seda 325ml Anti-caspa</t>
+          <t>Condicionador Palmolive 350ml Nutri Liss</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3b27edcf-0ea2-4576-9506-2dfddb560541.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4e1d0a44-e139-4bfb-b70b-db206e41065e.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891024170335</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Shampoo Seda 325ml Cachos Definidos</t>
+          <t>Condicionador Palmolive 350ml Ceramidas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a88e4e64-bf2b-4083-8631-392e296fe91e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df00ddc6-d259-458c-afe3-f62206c73ebc.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891024174210</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Shampoo Seda 325ml Liso Perfeito</t>
+          <t>Gel Fix Bozzano 300g Ação Prolongada</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6458c3aa-cf6d-4448-a4cf-2052ebe2a178.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5ae3599c-61bc-4a40-bd8e-b3379eb96f39.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891350034868</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Shampoo Seda 325ml S.o.s Ceramidas</t>
+          <t>Condicionador Palmolive 350ml Ilumi Pretos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/afc7529c-67cd-4dce-a84d-295bb161fdd2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2e5f7638-5110-469b-a2a2-290da0c5bcd9.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891024158708</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Shampoo Clear Antic 200ml Limp Diaria 2x1</t>
+          <t>Creme De Tratamento Skala 1kg Babosa</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f55ffb43-5f79-4c68-9711-b9f888a641ad.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8bd57d7f-cf4a-4006-a871-96ffc45e84a4.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7897042005062</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Shampoo Clear 400ml Limp Profunda</t>
+          <t>Creme De Tratamento Skala Manteiga Karite 1kg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ebf91389-6004-4645-8327-a471136dd2f0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a7881146-e33c-40f8-9619-5e2f0551e605.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7897042004942</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Shampoo Tresemme 400ml Hid Profunda</t>
+          <t>Tintura Koleston Preto 20</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fc0405df-8ac9-4ff0-bff5-437ed5a4d671.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a03997dd-9091-43ef-821a-32c8df552648.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7891182016230</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Condicionador Seda 325ml Liso Perfeito</t>
+          <t>Tintura Koleston Preto Azulado 28</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc4760eb-1e2d-4032-971e-15de1984b314.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe91c1de-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891182016230</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Creme P/ Pentear Seda 300ml Cacho Comp</t>
+          <t>Creme De Tratamento Skala Coquetel Frutas 1kg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e83e1cdd-cd99-4c81-badc-1b0eb71fd12f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/950a92dc-1139-46dd-a005-176cc369ff88.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7897042005024</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Shampoo Tresemme 400ml Recons Forca</t>
+          <t>Creme De Tratamento Skala 1kg Lama Negra</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ea833156-9251-44c4-a424-218740b8c39a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/18fd4851-2aa8-46a6-a79c-cca0392fb21e.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7897042006021</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Shampoo Monange 325ml Boost Crescimento</t>
+          <t>Shampoo Clear Antic 200ml Ice Cool Ment</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee7859e4-7f87-4e5a-a574-272ae9b8b6e2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/471d707b-4f24-4312-bfc0-6adc670b61d1.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7898422746209</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Condicionador Seda 325ml Cachos Definidos</t>
+          <t>Kit Niely Sh+cond Gold Queratina</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f11eab7-9051-4750-bee0-6cceb50c7308.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a82907a-1613-4c28-ba95-da595968441b.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896000711601</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Shampoo Elseve 200ml Oleo Extraordinario Nut</t>
+          <t>Condicionador Elseve 200ml Colorvive</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d76ab4c-0e59-4310-83c5-00981640cc21.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bfb36009-7146-4aa0-9f87-9a204ad02260.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896014123902</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Shampoo Monange 325ml Detox Terapia</t>
+          <t>Creme De Tratamento Skala Extra Lisos 1kg</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8107ccd9-c983-4b94-87e4-af936dc4f533.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf569d6e-fada-4607-b5c7-3b402b67fcdc.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7897042008407</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Shampoo Palmolive Classic 350ml Anticaspa</t>
+          <t>Gel S/alcool Soft Bco N4 250g</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/05eda31d-896a-4a22-aabf-c6831bfff36d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/46fde029-aeac-4e26-b41f-08d8b2077921.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7898930508016</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Shampoo Darling Ceramidas 350ml</t>
+          <t>Gel S/alcool Soft Az N3 250g</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/108b0eb0-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f4120ee-f6fb-4d21-88bf-cde89ce6ce71.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7898905885845</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Kit Sh300+ Cond190ml Seda Ceramidas</t>
+          <t>Gel S/alcool Soft Azul N3 230g</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c7e30071-fca0-49f3-8047-f03c31391a7f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/259e9686-b329-49ab-b449-d829b3df9a77.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7898930508023</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Shampoo Seda 325ml Pretos Luminosos</t>
+          <t>Gel S/alcool Soft Bco N4 230g</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/26d7565a-28d7-43dd-914b-3de7d3fc1b09.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f18e8c14-4d7a-49c4-8397-4fc2d4eea2b1.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7898930508016</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Shampoo Clear Antic 200ml Ice Cool Ment</t>
+          <t>Shampoo Palmolive Classic 350ml Anticaspa</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/471d707b-4f24-4312-bfc0-6adc670b61d1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/05eda31d-896a-4a22-aabf-c6831bfff36d.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7891024171233</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Shampoo Monange 325ml Lisos Te Quero</t>
+          <t>Cr Trat Skala #maiscrespos 1kg</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f931afe5-6849-445d-b5ed-f11af938867f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3bb93cd3-6889-4b64-8ae7-80c72216fe67.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7897042005062</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Shampoo Tresemme 400ml Cachos Def</t>
+          <t>Condicionador Elseve 200ml Rep Total 5</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aad355ad-0358-49b8-942a-3fe874d538a4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7dd0ce9d-1cae-4e4c-9722-9063d27e094b.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7898587764926</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Creme De Tratamento Skala Kids 1kg</t>
+          <t>Gel Ny Looks 240g 04 Mega</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/681a51c6-5cdf-4502-aa10-deb4de61723d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/569fc4e7-6145-41e2-ae4b-88fb69207d78.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7891350034950</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Kit Shampoo+condicionador Stud Hair Muriel 250ml Hidratação</t>
+          <t>Gel Ny Looks 240g 01 Media Incolor</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1d10a59e-0831-43a2-99a4-08e14494ef1e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e80d88a8-880c-4b85-ac4c-39afa9fcb1af.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7891350034929</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Creme De Tratamento Skala 1kg Oleo De Coco</t>
+          <t>Shampoo Clear Antic 200ml Queda Control</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/68fefbbd-b45d-4f54-9938-25a6ea64fcfa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53b127d9-65ac-41a1-ac59-e7a5500906a9.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7891150001077</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1266,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Shampoo Clear Antic 200ml Limpeza Profunda</t>
+          <t>Shampoo Clear Antic 200ml Hidr Intensa</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1146,7 +1276,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e83f3a8f-f215-4b63-84f7-b224eba577ec.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7cc44760-56bb-442e-ac38-74d1b6dcd122.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7891150008151</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Shampoo Monange 325ml Hidrata Com Poder</t>
+          <t>Shampoo Palmolive 350ml Anticasp/antiqued Men</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/93de91d5-d2d2-4e27-aefb-33f9fb999183.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3bdb6617-fb4d-4ca4-957a-2c9a4f5acb99.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7891024160718</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Creme De Tratatamento Skala 12 Em 1 1kg</t>
+          <t>Condicionador Tresemme 400ml Hid Profunda</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34ae2d66-7f9b-46b6-8621-d7944c85bb4f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f817afa-f04c-4811-8047-66e07e135090.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7891150018846</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Shampoo Clear Antic 200ml Queda Control</t>
+          <t>Condicionador Tresemme 400ml Recons Forca</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53b127d9-65ac-41a1-ac59-e7a5500906a9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd460279-87a8-413b-bab2-0780f8208496.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7891150018877</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Shampoo Clear Men Ice Cool 400ml Menthol</t>
+          <t>Shampoo Tresemme 400ml Recons Forca</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e95f333e-4805-4c77-98dc-6868bbdc5863.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ea833156-9251-44c4-a424-218740b8c39a.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7891150018877</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Shampoo Monange 325ml Cachos Que Tal</t>
+          <t>Shampoo Tresemme 400ml Hid Profunda</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/efe228b1-3e71-49bb-b059-7a3934edd6b2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fc0405df-8ac9-4ff0-bff5-437ed5a4d671.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7891150018846</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Creme De Tratamento Skala Ceramidas G3 1kg</t>
+          <t>Kit Niely Gold Sh+cond Oleo Argan</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/647579ef-24e0-4546-8839-237566e04314.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2376f5fe-2010-4d3b-a3ba-f74cbc4d327d.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7896000717658</t>
         </is>
       </c>
     </row>
@@ -1338,6 +1503,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d5aef58-4c33-409f-b6cf-b99cbccb56ba.jpg</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7897042010721</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Kit Shampoo+condionador Stud Har Muriel 250ml Hialuronico</t>
+          <t>Shampoo Tresemme 400ml Cachos Def</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bf288c20-7187-4909-b9c1-206dcab82cdc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aad355ad-0358-49b8-942a-3fe874d538a4.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7891150018853</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Kit Shampoo+condicionador Stud Hair Muriel 250ml Restauracao</t>
+          <t>Condicionador Tresemme 400ml Cachos Def</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d3639e6-c3e8-44af-b651-187a9fe17771.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5a0de2f4-ab4e-48b9-82da-92f0f436ef45.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7891150018853</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Kit Sh300+ Cond190ml Seda Cachos Definidos</t>
+          <t>Shampoo Elseve 200ml Colorvive Reno</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/684364ae-113a-4439-9517-905c7ee5d3e7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/28a93d97-68ab-43bb-a0d0-26b4494a0738.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7899026459748</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Shampoo Palmolive 350ml Anticasp/antiqued Men</t>
+          <t>Creme De Tratamento Elseve 300g Reparação Total</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3bdb6617-fb4d-4ca4-957a-2c9a4f5acb99.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2459bb4a-8088-4b53-988a-9d126ae44844.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7899026457645</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Shampoo Clear Antic 200ml Contro Coceira</t>
+          <t>Gel Fixador Softfix 500g Aço</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/17b0ca57-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b33f542-be83-4c88-84a2-d885afb8e853.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7898930508962</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Creme De Tratamento Skala 1kg Babosa</t>
+          <t>Gel Fixador Softfix 500g Rocha</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8bd57d7f-cf4a-4006-a871-96ffc45e84a4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51e6855b-b2bb-40e8-85a0-6b304c187b56.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7898930508924</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Condicionador Dove 200ml Hid Intensa Oxigenio</t>
+          <t>Condicionador Tresemme 400ml Tresplex</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/80ff6985-2952-4804-8e57-0577f537e7e6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/681c9894-c514-4ff1-9cb3-782585274fe6.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7891150029606</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Shampoo Monange 325ml Restaura Que Gosto</t>
+          <t>Shampoo Tresemme 400ml Tresplex</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eae805d5-7e2e-4268-ae20-352e68ca535a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff7d89b2-15c9-4b3f-a20a-4ec781a8f764.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7891150029606</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Shampoo Tresemme 400ml Tresplex</t>
+          <t>Gel Premium Prof Softfix 1kg</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff7d89b2-15c9-4b3f-a20a-4ec781a8f764.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e0fd5acd-bc50-43d3-8118-1fd4f13e79ec.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7898930509105</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Shampoo Pantene 400ml Bambu</t>
+          <t>Shampoo Elseve 200ml Oleo Extraordinario Nut</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/349ad691-0d45-4833-8ec5-86159261938a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d76ab4c-0e59-4310-83c5-00981640cc21.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7898587774314</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Condicionador Dove 200ml Oleo Nutricao</t>
+          <t>Condicionador Elseve 200ml Oleo Extraordinario</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/995e4fc4-9311-4164-980b-005f7e9416b9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8083e743-06fc-44cb-b40e-1d51296d9607.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7898587774352</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Kit Niely Gold Sh+cond Oleo Argan</t>
+          <t>Repar Pontas Soft Fix 30ml Ceramidas</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2376f5fe-2010-4d3b-a3ba-f74cbc4d327d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14f51ab6-ca5c-455e-aa83-646d14dcd66b.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7898930508054</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Condicionador Elseve 200ml Colorvive</t>
+          <t>Shampoo Seda 325ml Anti-caspa</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bfb36009-7146-4aa0-9f87-9a204ad02260.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3b27edcf-0ea2-4576-9506-2dfddb560541.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7891150037458</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Shampoo Pantene 400ml Hidratação Intensa</t>
+          <t>Condicionador Seda 325ml Liso Perfeito</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3aec8e9-75c4-4e07-af0a-a3cfa7356081.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc4760eb-1e2d-4032-971e-15de1984b314.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7891150037328</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Shampoo Clear Antic 200ml Hidr Intensa</t>
+          <t>Condicionador Seda 325ml Pretos Luminosos</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7cc44760-56bb-442e-ac38-74d1b6dcd122.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9d81ed7-b2dc-4214-8bce-457715173106.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7891150037526</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Shampoo Elseve 200ml Colorvive Reno</t>
+          <t>Shampoo Seda 325ml Pretos Luminosos</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/28a93d97-68ab-43bb-a0d0-26b4494a0738.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/26d7565a-28d7-43dd-914b-3de7d3fc1b09.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7891150037526</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Shampoo Pantene 400g Liso Extremo</t>
+          <t>Shampoo Seda 325ml Liso Perfeito</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ffc4ecac-7e60-4d5d-a14c-85f0ced93848.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6458c3aa-cf6d-4448-a4cf-2052ebe2a178.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7891150037328</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Shampoo Pantene 175ml Liso Extremo</t>
+          <t>Tintura Cor E Ton 50g 8.0 Louro Claro</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b646afab-098c-49a0-a860-c1e000fe9fa9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a552432d-4c65-437a-bdcb-20534b9f3297.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7896000706171</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Condicionador Tresemme 400ml Recons Forca</t>
+          <t>Tintura Cor E Ton 50g 1.0 Preto Azulado</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 25,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd460279-87a8-413b-bab2-0780f8208496.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8f4811a-f80d-46ad-b0c5-5ea9aecc433e.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7896000727534</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Shampoo Elseve 200ml Glycolic Gloss</t>
+          <t>Tintura Cor E Ton 50g 3.0 Castanho Escuro</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/110cff59-5ce6-441a-8e7f-1807c6ffa33c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/77b2d117-abeb-4350-84c4-77d76d432736.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7896000705969</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Shampoo Tresemme 400ml Detox Capilar</t>
+          <t>Tintur Cor E Ton 50g 4.0 Castanho Medio</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5ac89f2-de20-4490-a40c-0ca3f606f5a4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e881be2b-fbe7-4438-b058-4b6acdd06a1b.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7896000705976</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Kit Shampoo 450ml + Condicionador 440ml Jacques Janine Repair</t>
+          <t>Tintura Cor E Ton 50g 5.0 Castanho Claro</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/155bd730-3b3e-4245-898b-e4c1f32ea56e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/72545755-7650-46dc-9b18-a49c01d32862.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7896000705983</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Shampoo Pantene 200ml Brilho Extremo</t>
+          <t>Tintura Cor E Ton 50g 6.7 Chocolate</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/239361d0-bdbb-4580-9b6e-1eb714f94613.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15517c85-775a-434d-a555-2018e93ce98a.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7896000705921</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Shampoo Pantene 400g Brilho Ext</t>
+          <t>Tintura Cor E Ton 50g 7.0 Louro Medio</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/83ed2fd0-97a2-4989-afab-c8f515876af6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1a536963-070c-4729-a766-8cde943058e9.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7896000706027</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Creme De Tratamento Skala Manteiga Karite 1kg</t>
+          <t>Kit Palmolive Sham/cond Ceramidas 350ml</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a7881146-e33c-40f8-9619-5e2f0551e605.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d2bca97f-0278-43d1-8be6-849b19b38a0a.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7891024174715</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Condicionador Tresemme 400ml Hid Profunda</t>
+          <t>Creme P/pentear Seda 300ml Oleo Babosa</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 25,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f817afa-f04c-4811-8047-66e07e135090.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53755a49-587e-4e8d-bafa-83028776a972.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7891150060883</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Creme P/pentear Seda 300ml Oleo Babosa</t>
+          <t>Creme P/ Penteartresemme 200ml Hidrata</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53755a49-587e-4e8d-bafa-83028776a972.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc13b557-57c5-446b-8f2a-e303baa88612.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7891150058965</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Shampoo Elseve 200ml Cachos Dos Sonhos</t>
+          <t>Shampoo Clear Antic 200ml Detox Diario</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15d7ce66-208d-4846-afaf-230c4e27c4de.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7ccafd7-84dd-4af9-9d4b-656508a176a7.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7891150055698</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Condicionador Seda 325 Ml Bambu E Biotina</t>
+          <t>Condicionador Dove 200ml Nut Oleo Micelar</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1908bf2e-b33f-4188-80c7-86a4db912082.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d35fa30b-6437-4627-b0fe-4214b35ccfc4.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7891150055193</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Condicionador Darling Detox 350ml</t>
+          <t>Pomada Modeladora Barb Shop Mate 130gr</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 9,93</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ccf5f577-92ef-447c-8419-b63e96f8d57e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30aba049-c4e2-40c3-9b8d-cb89deb35238.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7898930509648</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2482,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Kit Shampoo 450ml + Condicionador 440ml Jaques Jannine Hydra</t>
+          <t>Shampoo Barber Shop 3 Em 1 Bigode 500ml</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 19,93</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4785cc0-6c97-4c68-b36c-3034f582d2e1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a41fa80b-95f5-4082-91bf-389ea143f520.jpg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7898930509754</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Condicionador Elseve 200ml Rep Total 5</t>
+          <t>Gel Bozzano 300gr Fix Brilho Molhado Pra</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7dd0ce9d-1cae-4e4c-9722-9063d27e094b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5ef2310-90f9-43c8-9158-73181d9fedac.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7891350034844</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Condicionador Dove 200ml Nut Oleo Micelar</t>
+          <t>Shampoo Monange 325ml Restaura Que Gosto</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d35fa30b-6437-4627-b0fe-4214b35ccfc4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eae805d5-7e2e-4268-ae20-352e68ca535a.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7896235353362</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2578,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Creme De Tratamento Skala Extra Lisos 1kg</t>
+          <t>Shampoo Monange 325ml Cachos Que Tal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf569d6e-fada-4607-b5c7-3b402b67fcdc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/efe228b1-3e71-49bb-b059-7a3934edd6b2.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7896235353348</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Condicionador Seda 325ml Pretos Luminosos</t>
+          <t>Shampoo Monange 325ml Detox Terapia</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9d81ed7-b2dc-4214-8bce-457715173106.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8107ccd9-c983-4b94-87e4-af936dc4f533.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7896235353386</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2642,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Kit Shampoo 450ml + Condicionador 440ml Jaques Jannine Nutri</t>
+          <t>Shampoo Monange 325ml Lisos Te Quero</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e76f868e-c105-4181-b4c5-120b0f13ccba.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f931afe5-6849-445d-b5ed-f11af938867f.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7896235353331</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Condicionador Pantene 175ml Hidratação</t>
+          <t>Condicionador Monange 325ml Restaura Que Gosto</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3e4c79d-008c-44fe-8186-bd7edffd2756.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4ee4e51-14f9-413d-b29d-1db23c0cc695.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7896235353362</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Shampoo Clear Men 200ml Cabelo E Barba</t>
+          <t>Shampoo Monange 325ml Boost Crescimento</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/47ef03ee-a6bc-403f-8c7e-1366db1be690.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee7859e4-7f87-4e5a-a574-272ae9b8b6e2.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7896235353447</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2738,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Oleo Para Capilar Umectacao Muriel 60ml Ricino</t>
+          <t>Condicionador Monange 325ml Boost Crescimento</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 7,93</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c0a6064f-227b-4be5-973a-d1eed5b3fb75.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dee3abcd-6b3a-4357-ad78-b7fdf359b7c8.jpg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7896235353447</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2770,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Shampoo Head E Shoulders 200ml Anti Coceira</t>
+          <t>Condicionador Monange 325ml Cachos Que Tal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f572cf73-4a52-4fcf-99b3-6a93e7348e41.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d0936457-22fb-47c4-a024-d721b060c6ee.jpg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7896235353348</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2802,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Condicionador Tresemme 400ml Cachos Def</t>
+          <t>Shampoo Clear Men Ice Cool 400ml Menthol</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R$ 25,99</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5a0de2f4-ab4e-48b9-82da-92f0f436ef45.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e95f333e-4805-4c77-98dc-6868bbdc5863.jpg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7891150001183</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2834,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Shampoo Pantene 400gr Rest Profunda</t>
+          <t>Shampoo Tresemme 400ml Detox Capilar</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d096362d-e9f9-4f3f-90d0-b08c23fce323.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5ac89f2-de20-4490-a40c-0ca3f606f5a4.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7891150041714</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2866,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Kit Shampoo 450ml + Condicionador 440ml Jaques Jannine Liss</t>
+          <t>Shampoo Dove 200ml Ritual De Reparação</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/296c8576-a1c6-4cd2-8b88-2edd5a44775f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6918ad01-2a42-4256-b253-6e5819956d24.jpg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7891150050075</t>
         </is>
       </c>
     </row>
@@ -2513,17 +2898,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Shampoo Clear Antic 200ml Flor De Cerej</t>
+          <t>Condicionador Tresemme 400ml Detox Capilar</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5076faba-8187-4e4f-b2cd-5239c02b1106.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dcb84968-aa34-4a67-9b16-a3679029e260.jpg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7891150041714</t>
         </is>
       </c>
     </row>
@@ -2540,17 +2930,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Kit Shampoo+condicionador Studio Hair Muriel 250ml Nutricao E Brilho</t>
+          <t>Amônia Farmax 100 Ml</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd1b8e80-ee78-4756-83af-0cfa55b85050.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f9c9d35-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7896902210905</t>
         </is>
       </c>
     </row>
@@ -2567,17 +2962,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Mascara De Cabelo Janinne 400g Liss</t>
+          <t>Condicionador Palmolive 350ml Detox</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2e272328-aa0b-48ad-af38-ce0fa3f8bdc0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f8f4fda-4f2a-425d-8df8-8864ad52deca.jpg</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7891024042915</t>
         </is>
       </c>
     </row>
@@ -2594,17 +2994,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Kit Sh300+ Cond190ml Seda Hidratacao</t>
+          <t>Condicionador Seda 325 Ml Bambu E Biotina</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a71f070f-7622-4d2f-8838-d10fd19ad438.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1908bf2e-b33f-4188-80c7-86a4db912082.jpg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7891150070295</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3026,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Condicionador Monange 325ml Boost Crescimento</t>
+          <t>Gel Cola Softfix 250g Branco</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R$ 7,93</t>
+          <t>R$ 6,93</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dee3abcd-6b3a-4357-ad78-b7fdf359b7c8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/803bfabe-bdbe-4b24-9248-507f26bfd154.jpg</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7898930508122</t>
         </is>
       </c>
     </row>
@@ -2648,17 +3058,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Creme De Tratamento Skala 1kg Lama Negra</t>
+          <t>Gel Fixador Softfix 500g Cola Fightfix</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/18fd4851-2aa8-46a6-a79c-cca0392fb21e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d152f587-345b-4d85-8752-974ad705ba3e.jpg</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7898930508580</t>
         </is>
       </c>
     </row>
@@ -2675,17 +3090,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Gel S/alcool Soft Bco N4 230g</t>
+          <t>Gel Fixador Softfix 500g Super Cola</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f18e8c14-4d7a-49c4-8397-4fc2d4eea2b1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8571ed62-1a6b-41c5-8f69-f68ad83f9810.jpg</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7898930508917</t>
         </is>
       </c>
     </row>
@@ -2702,17 +3122,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Kit Dove Shampoo 350ml + Condicionador 175ml Queratina</t>
+          <t>Gel Softix S/alcool 240gr Rocha</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 6,93</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03eb9764-7278-4cd6-8116-13ca7eb6b487.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3cb078d0-cac5-4980-aa34-3267a9874c20.jpg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7898930508344</t>
         </is>
       </c>
     </row>
@@ -2729,17 +3154,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Condicionador Elseve 200ml Cachos Dos Sonhos</t>
+          <t>Shampoo Clear Antic 200ml Contro Coceira</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0371669a-766e-4dbc-b08a-e29128513a30.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/17b0ca57-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7891150014107</t>
         </is>
       </c>
     </row>
@@ -2756,17 +3186,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Creme De Tratamento Skala Coquetel Frutas 1kg</t>
+          <t>Shampoo Dove 200ml Antiscaspa</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/950a92dc-1139-46dd-a005-176cc369ff88.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ee5b8c5-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7891150021709</t>
         </is>
       </c>
     </row>
@@ -2783,17 +3218,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Shampoo Head E Shoulders 200ml Hidratação</t>
+          <t>Shampoo Darling Ceramidas 350ml</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df941128-a61d-4032-8f04-be27cd4c119d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/108b0eb0-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7891024181072</t>
         </is>
       </c>
     </row>
@@ -2810,17 +3250,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Kit Niely Gold Sh+cond 200g Nut Poderosa</t>
+          <t>Sh Darling 350ml Tilia Cab. Seco</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4d67f443-7c31-4302-8f32-fd652e3c4535.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a4b807c-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7891024180877</t>
         </is>
       </c>
     </row>
@@ -2837,17 +3282,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Condicionador Ox Mari Maria Vita Glow 240ml</t>
+          <t>Kit Escovinha E Pente Baby Marco Boni</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 10,93</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/523d73c4-aafa-4dba-95bc-d876114c199d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eec2387b-1bf8-4af8-aee4-6b116b2df5c7.jpg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7896025502895</t>
         </is>
       </c>
     </row>
@@ -2864,17 +3314,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Creme P/ Pentear Seda 300ml Ceramidas</t>
+          <t>Escova De Cabelo Heloisa Marco Boni</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe0c6c1f-45e4-4057-85b7-e297342cf013.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/60c37319-6e96-4e65-ae4e-bc43404739be.jpg</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7896025501904</t>
         </is>
       </c>
     </row>
@@ -2891,17 +3346,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Cr Trat Skala #maiscrespos 1kg</t>
+          <t>Mini Escova Almofadada P/ Bolsa Marco Boni</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3bb93cd3-6889-4b64-8ae7-80c72216fe67.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9022cbf5-39e5-4ffa-ba06-3f9458ddc71b.jpg</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7896025506572</t>
         </is>
       </c>
     </row>
@@ -2918,17 +3378,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Condicionador Dove 200ml Ritual De Reparacao Coco</t>
+          <t>Creme P/ Pentea Seda 300ml Colageno/vitamina C</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99ae1a0e-e007-4ec7-a398-a8f00add4d56.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/283e9dc1-2178-40fc-872e-9e6608cd005e.jpg</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7891150080096</t>
         </is>
       </c>
     </row>
@@ -2945,17 +3410,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Mascara De Cabelo Janinne 400g Nutri</t>
+          <t>Gel Fixador Clear Pote 300g Controle De Caspa</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e21023e7-cca6-43b5-b483-b21620a6f346.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1b37857-df8f-46a1-b932-636176dcfaf8.jpg</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7891150075962</t>
         </is>
       </c>
     </row>
@@ -2972,17 +3442,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Condicionador Monange 325ml Cachos Que Tal</t>
+          <t>Shampoo Clear Anticoceira 200ml Jojoba E Melaleuca</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d0936457-22fb-47c4-a024-d721b060c6ee.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/70c612c9-e3a6-4815-87c3-bb35181f8df9.jpg</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7891150081611</t>
         </is>
       </c>
     </row>
@@ -2999,7 +3474,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Shampoo Clear Anticoceira 200ml Jojoba E Melaleuca</t>
+          <t>Shampoo Clear Men 200ml Cabelo E Barba</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3009,7 +3484,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/70c612c9-e3a6-4815-87c3-bb35181f8df9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/47ef03ee-a6bc-403f-8c7e-1366db1be690.jpg</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7891150075276</t>
         </is>
       </c>
     </row>
@@ -3026,17 +3506,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Shampoo Dove 200ml C/ Oleo De Babosa</t>
+          <t>Kit Shampoo+condicionador Stud Hair Muriel 250ml Hidratação</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6bf5c3fb-1931-483d-ae9d-683f4b3d4697.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1d10a59e-0831-43a2-99a4-08e14494ef1e.jpg</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7896279117203</t>
         </is>
       </c>
     </row>
@@ -3053,17 +3538,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Shampoo Elseve 200m Liso Dos Sonhos</t>
+          <t>Kit Shampoo+condicionador Stud Hair Muriel 250ml Restauracao</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/038f1b81-31a6-4c7e-a301-a35f587a2af9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d3639e6-c3e8-44af-b651-187a9fe17771.jpg</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7896279117234</t>
         </is>
       </c>
     </row>
@@ -3080,17 +3570,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Shampoo Head E Shoulders 3 Em 1 200m Ment Men</t>
+          <t>Kit Shampoo+condionador Stud Har Muriel 250ml Hialuronico</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ea4b5e12-a60b-4551-8f99-bcdabff6cfac.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bf288c20-7187-4909-b9c1-206dcab82cdc.jpg</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7896279122153</t>
         </is>
       </c>
     </row>
@@ -3107,17 +3602,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Condicionador Pantene 175ml Restauração</t>
+          <t>Tintura Probelle Super Bonita 1.0</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d2a71dfa-c2c2-4e62-8e3e-6c7ed369e12c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d9a9887c-9745-4338-ad54-8f1784858962.jpg</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7898617521703</t>
         </is>
       </c>
     </row>
@@ -3134,17 +3634,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Sh Darling 350ml 2 Em1 Beleza/maciez</t>
+          <t>Tintura Probelle Super Bonita 2.0</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a31a9f8-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/decfbe9a-9271-416f-94c0-7d5416426344.jpg</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7898617521703</t>
         </is>
       </c>
     </row>
@@ -3161,17 +3666,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Kit Shampo 450ml + Condiionador 440ml Jaques Jannine Bambu</t>
+          <t>Tintura Probelle Super Bonita 2.8</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/efb070a2-1a50-403a-9edf-0b850cc51c9f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d7171e89-e6bf-4a3c-9ba8-57a1059f0053.jpg</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7898617522212</t>
         </is>
       </c>
     </row>
@@ -3188,17 +3698,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Gel S/alcool Soft Azul N3 230g</t>
+          <t>Tintura Probelle Super Bonita 4.0</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/259e9686-b329-49ab-b449-d829b3df9a77.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/44542a7d-0bb6-4126-b3a3-756447d33832.jpg</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7898617521703</t>
         </is>
       </c>
     </row>
@@ -3215,17 +3730,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Condicionador Pantene 400ml Rest Profunda</t>
+          <t>Tintura Probelle Super Bonita 5.0</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b3b62501-45de-4c6a-b82d-32b7a5b8dd22.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6cc03976-0463-458d-a6bd-0842fe231d39.jpg</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7898617521772</t>
         </is>
       </c>
     </row>
@@ -3242,17 +3762,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Condicionador Pantene 400ml Hidratação Intensa</t>
+          <t>Tintura Probelle Super Bonita 6.4</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bf8cda00-debd-4017-a832-ed0879ddefb8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1827c292-f328-4d28-8c93-152d3960e31e.jpg</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7898617521703</t>
         </is>
       </c>
     </row>
@@ -3269,17 +3794,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Cond Pantene 150ml Colageno</t>
+          <t>Tintura Probelle Super Bonita 7.0</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e49411c8-5174-478b-a367-ba8f9fe8a59e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/91cb2ab0-89bb-4641-801a-095aefadd1c6.jpg</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7898617521703</t>
         </is>
       </c>
     </row>
@@ -3296,17 +3826,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Shampoo Baby Regular J&amp;j 400ml</t>
+          <t>Tintura Probelle Super Bonita 9.98</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/45ef75d8-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a9d194f-cc8c-4187-810b-3a6a3bb0a641.jpg</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7898617522212</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3858,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Gel Ny Looks 240g 04 Mega</t>
+          <t>Tintura Probelle Super Bonita 8.26</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/569fc4e7-6145-41e2-ae4b-88fb69207d78.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/723d5c09-4d3d-4e4c-9148-667fd2df3e1a.jpg</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7898617521703</t>
         </is>
       </c>
     </row>
@@ -3350,17 +3890,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Shampoo Pantene 400ml Hidrocauterizacao</t>
+          <t>Gel Cola Barber Shop Softfix 500g Explosao</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6bcb1f1-8e75-4cdf-ab97-5ef47503a51b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c279da92-511b-4e1e-ab9d-1ac18f31e36e.jpg</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7898930509549</t>
         </is>
       </c>
     </row>
@@ -3377,17 +3922,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Sh Darling 350ml Tilia Cab. Seco</t>
+          <t>Condicionador Tio Nacho 415ml Antiqueda E Anti Idade</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a4b807c-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/63d1dad5-7ed4-4c5a-b0b9-b2d8c8cfdb70.jpg</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7898949409717</t>
         </is>
       </c>
     </row>
@@ -3404,17 +3954,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Condicionador Elseve 200ml Hidra Hialuronico</t>
+          <t>Condicionador Tio Nacho 415ml Clareador Antiqueda</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/166a56bf-3cbf-40b2-83fa-8dcd25906de4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/805f4bfe-0ae2-4817-8a11-471d3931000a.jpg</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7898949409724</t>
         </is>
       </c>
     </row>
@@ -3431,17 +3986,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Shampoo Pantene 175ml Cachos Hidra Vit</t>
+          <t>Shampoo Tio Nacho 415ml Antiqueda E Anti Idade</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8d6ecb98-ed3e-47ed-b7e5-ec7f097537c7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eef5677c-e113-4293-b0cc-0384120c1b21.jpg</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7898949409717</t>
         </is>
       </c>
     </row>
@@ -3458,17 +4018,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Shampoo Head E Shoulders 200ml Prev Queda Men</t>
+          <t>Shampoo Tio Nacho 415ml Clareador Antiqueda</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b0e1f472-ae12-41b0-843b-f62a51d7d2ff.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/08df419c-5d6a-431a-9172-14111639257a.jpg</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>7898949409724</t>
         </is>
       </c>
     </row>
@@ -3485,17 +4050,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Shampoo Pantene 175ml Hidratação</t>
+          <t>Creme P/ Pentear Seda Pro Curvatura Boom 350ml Modelador Anti Frizz</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/84c00072-8b0c-406b-b82f-33dd923352f9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/48499eda-b1bc-4244-9758-4f0236fb04cf.jpg</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7891150088368</t>
         </is>
       </c>
     </row>
@@ -3512,17 +4082,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Condicionador Pantene 175ml Brilho Extremo</t>
+          <t>Mascara De Tratamento Seda 300g By Nina Secrets Colageno E Vitamina C Pote</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/edfb7f47-57c4-4361-a64b-82228473ab0d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/66a9d81a-25e5-4bf7-ac9f-a5d0e7df8b81.jpg</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7891150080119</t>
         </is>
       </c>
     </row>
@@ -3539,17 +4114,22 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Shampoo Clear Antic 200ml Detox Diario</t>
+          <t>Condicionador Kids Cheirinho 200ml</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7ccafd7-84dd-4af9-9d4b-656508a176a7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4c11de0a-fdfc-433b-a78d-93ca85913749.jpg</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7891010980085</t>
         </is>
       </c>
     </row>
@@ -3566,17 +4146,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Mascara De Cabelo Janinne 400g Bambu</t>
+          <t>Shampoo Baby Regular J&amp;j 400ml</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/146dd2d7-2c33-4887-a24b-5c02dcb04bf0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/45ef75d8-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>7891010800048</t>
         </is>
       </c>
     </row>
@@ -3593,17 +4178,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Creme De Tratamento Skala 1kg Keratina</t>
+          <t>Condicionador Tresemmé 400ml Brilho Lamelar</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7ddb0a0b-c0bb-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2aab5c66-dcfb-4a59-adb4-ea6fefff30a6.jpg</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7891150091115</t>
         </is>
       </c>
     </row>
@@ -3620,17 +4210,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Shampoo Pantene 175ml Restauração</t>
+          <t>Kit Tresemmé Shampoo 350ml + Condicionador 175ml Brilho Lamelar</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e622295f-628b-436a-b0cd-73efcf8311a3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/07e6f743-1930-45d2-bf4f-8fd40f0cc9ee.jpg</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7891150091207</t>
         </is>
       </c>
     </row>
@@ -3647,17 +4242,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Kit Shampoo 375ml E Condicionador 170ml Ox Restauração</t>
+          <t>Mascara Tratamento Tresemmé 400g Brilho Lamelar</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fec0b2e6-9322-4f22-9e60-19104dd77c85.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/428ceb45-fa70-486c-8909-4607c8e904a6.jpg</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7891150091245</t>
         </is>
       </c>
     </row>
@@ -3674,17 +4274,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Shampoo Dove 200ml Antiscaspa</t>
+          <t>Sérum De Tratamento Tresemmé Frasco 170ml Brilho Lamelar</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 24,93</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ee5b8c5-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/43a0f103-7c28-4385-9422-8f502d109fcc.jpg</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7891150091207</t>
         </is>
       </c>
     </row>
@@ -3701,17 +4306,22 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Oleo Para Umectacao Capilar Muriel 60ml Babosa</t>
+          <t>Shampoo Baby Jhonson &amp; Johnson 400ml Cabelos Claros</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/73e9cee3-ccb7-4664-89a4-da4552a54c39.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5dadca2a-445c-4f39-b566-833307edba37.jpg</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7891010875640</t>
         </is>
       </c>
     </row>
@@ -3728,17 +4338,22 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Condicionador Pantene 400ml Liso Extremo</t>
+          <t>Shampoo Tresemmé Frasco 400ml Brilho Lamelar</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d1fa8710-3c0d-43fe-bf68-bcbb84372912.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a3aebc89-a082-46ea-95e8-936c5cece3c3.jpg</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>7891150091115</t>
         </is>
       </c>
     </row>
@@ -3755,17 +4370,22 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Reparador De Pontas Softfix 30ml Silicone Com Queratina</t>
+          <t>Kit Shampoo 375+condicionador 170ml Elseve Hidratação Hialuronico</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a7cb20ac-021f-46e2-9efd-38c90bbbad4c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/660605d5-c6e5-46dd-bbc7-0459d6357806.jpg</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>7899706187343</t>
         </is>
       </c>
     </row>
@@ -3782,17 +4402,22 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Creme P/ Penteartresemme 200ml Hidrata</t>
+          <t>Shampoo Elseve 200ml Cachos Dos Sonhos</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc13b557-57c5-446b-8f2a-e303baa88612.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15d7ce66-208d-4846-afaf-230c4e27c4de.jpg</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>7899706197601</t>
         </is>
       </c>
     </row>
@@ -3809,17 +4434,22 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Condicionador Palmolive 350ml Detox</t>
+          <t>Shampoo Elseve 200ml Hialuronico Pure</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f8f4fda-4f2a-425d-8df8-8864ad52deca.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ac720f9-5b3c-455d-99be-7174684fe6ff.jpg</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7899706187343</t>
         </is>
       </c>
     </row>
@@ -3836,17 +4466,22 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Gel Fix Bozzano 300g Ação Prolongada</t>
+          <t>Shampoo Elseve 200ml Hialuronico</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5ae3599c-61bc-4a40-bd8e-b3379eb96f39.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30346b3a-8457-438c-8470-b4ea7f57f371.jpg</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>7899706187343</t>
         </is>
       </c>
     </row>
@@ -3863,17 +4498,22 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Condicionador Kolene 300g Nutre E Amacia</t>
+          <t>Shampoo Elseve 200ml Longo Dos Sonhos</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>R$ 11,98</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1d8df4d4-1a7a-4373-81ae-4e026d0c0586.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/06473e81-9800-451c-bdc9-7f756eb6f3f8.jpg</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>7899706170833</t>
         </is>
       </c>
     </row>
@@ -3890,17 +4530,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Creme De Tratamento Skala 1kg Jaborandi</t>
+          <t>Condicionador Elseve 200ml Cachos Dos Sonhos</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d5855f6-c0bb-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0371669a-766e-4dbc-b08a-e29128513a30.jpg</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>7899706197601</t>
         </is>
       </c>
     </row>
@@ -3917,17 +4562,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Kit Palmolive Sham/cond Ceramidas 350ml</t>
+          <t>Condicionador Elseve 200ml Hidra Hialuronico</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d2bca97f-0278-43d1-8be6-849b19b38a0a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/166a56bf-3cbf-40b2-83fa-8dcd25906de4.jpg</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>7899706187343</t>
         </is>
       </c>
     </row>
@@ -3944,17 +4594,22 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Condicionador Pantene 3mm 170ml Liso Extremo</t>
+          <t>Condicinador Elseve 200ml Longo Dos Sonhos</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>R$ 36,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f51c09d9-b74b-42e9-9d5e-28a64d2b1f6b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c9724ccd-74a5-486c-9501-bba701a7b1da.jpg</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>7899706170833</t>
         </is>
       </c>
     </row>
@@ -3971,17 +4626,22 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Creme De Tratamento Pantene 270ml Liso Extremo</t>
+          <t>Cera Wax Hair Jhow Hair 150g Black</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>R$ 36,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4acf1337-320d-4812-a101-b8fe460c9684.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>7896858624726</t>
         </is>
       </c>
     </row>
@@ -3998,17 +4658,22 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Shampoo Dove 200ml Ritual De Reparação</t>
+          <t>Cera Wax Hair Jhow Hair 150g Teia</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 7,93</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6918ad01-2a42-4256-b253-6e5819956d24.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>7896858622838</t>
         </is>
       </c>
     </row>
@@ -4025,17 +4690,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Kit Tresemmé Shampoo 350ml + Condicionador 175ml Brilho Lamelar</t>
+          <t>Gel Jhow Hair 240g Hiper Bomder</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/07e6f743-1930-45d2-bf4f-8fd40f0cc9ee.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>7896858615908</t>
         </is>
       </c>
     </row>
@@ -4052,7 +4722,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Tintura Koleston Preto 20</t>
+          <t>Cera Wax Hair Jhow Hair 150g Matte</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4062,7 +4732,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a03997dd-9091-43ef-821a-32c8df552648.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>7896858630000</t>
         </is>
       </c>
     </row>
@@ -4079,17 +4754,22 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Creme P/ Pentear Seda Pro Curvatura Boom 350ml Modelador Anti Frizz</t>
+          <t>Cera Wax Hair Ultra Fixadora Jhow Hair 150g Black</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 7,93</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/48499eda-b1bc-4244-9758-4f0236fb04cf.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>7896858624726</t>
         </is>
       </c>
     </row>
@@ -4106,17 +4786,22 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Kit Shampoo 200ml E Condicionador 170ml Ox Micelar</t>
+          <t>Cera Wax Hair Ultra Fixadora Jhow Hair 150g Incolor</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b44fe916-e9d7-4e4c-aae2-33cafd248ffb.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>7896858624702</t>
         </is>
       </c>
     </row>
@@ -4133,17 +4818,22 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Shampoo Elseve 200ml Hialuronico Pure</t>
+          <t>Escova Raquete Grande Nolita Marco Boni Cores Diversas</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ac720f9-5b3c-455d-99be-7174684fe6ff.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd33cfef-1832-441a-8278-6e466a426307.jpg</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>7896025542051</t>
         </is>
       </c>
     </row>
@@ -4160,17 +4850,22 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Kit Shampoo 375+condicionador 170ml Elseve Cachos Dos Sonhos</t>
+          <t>Pente Dentes Medios Coconut Marco Boni</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95fe22b3-d375-4d0a-8c51-91d616590931.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/08e64ccf-7a8a-4582-aca9-62525b8b9cfc.jpg</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>7896025526389</t>
         </is>
       </c>
     </row>
@@ -4187,17 +4882,22 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Creme De Tratamento Elseve 300g Reparação Total</t>
+          <t>Condicionador Seda 250ml Regeneração Intensa</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2459bb4a-8088-4b53-988a-9d126ae44844.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c6cb4fb-e472-4a2e-b28a-2ec97493b977.jpg</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>7891150101715</t>
         </is>
       </c>
     </row>
@@ -4214,17 +4914,22 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Kit Shampoo+condicionador Studio Hair Muriel 250ml Reparacao E Antiquebra</t>
+          <t>Condicionador Seda 250ml Toque De Seda</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b5fed91e-2212-4e0b-bfee-efa3ff4e7cc2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/10e2ebc4-b85c-4917-af98-222bc5086604.jpg</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>7891150101586</t>
         </is>
       </c>
     </row>
@@ -4241,17 +4946,22 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Cond Pantene 250ml Bambu</t>
+          <t>Condicionador Seda 300ml Luminous Uv</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d23dbae-946d-4b0c-8811-98aecc5f8ced.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/28fdcacf-c817-4cdd-8a57-6158fad6b0e0.jpg</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>7891150099845</t>
         </is>
       </c>
     </row>
@@ -4268,17 +4978,22 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Kit Shampoo 450ml + Condicionador 440ml Jaques Jannine Purify</t>
+          <t>Condicionador Tresemmé 400ml Blindagem Antiumidade</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/130bb46a-6849-447a-9df6-6ee9c2a394f6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c466c900-7722-4927-bfb6-9bcc6c6f1512.jpg</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>7891150100329</t>
         </is>
       </c>
     </row>
@@ -4295,17 +5010,22 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Shampoo Elseve 200ml Hialuronico</t>
+          <t>Creme Para Pentear Seda 300ml Luminous Uv</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30346b3a-8457-438c-8470-b4ea7f57f371.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f16d118-3765-47a3-a1de-0222532c7a63.jpg</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>7891150099845</t>
         </is>
       </c>
     </row>
@@ -4322,17 +5042,22 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Gel S/alcool Soft Az N3 250g</t>
+          <t>Creme Para Pentear Seda 300ml Toque De Seda</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f4120ee-f6fb-4d21-88bf-cde89ce6ce71.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a06976e1-297f-4369-a08c-b8f7e68b93b0.jpg</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>7891150101616</t>
         </is>
       </c>
     </row>
@@ -4349,17 +5074,22 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Condicionador Pantene 400ml Brilho Ext</t>
+          <t>Kit Seda Shampoo 300ml + Condicionador 190ml Luminous Uv</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7b99e2b-cca5-467c-9459-494cb8682e59.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e944b0b6-df19-4bae-a4a3-65ac40888513.jpg</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>7891150099845</t>
         </is>
       </c>
     </row>
@@ -4376,17 +5106,22 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Repar Pontas Soft Fix 30ml Ceramidas</t>
+          <t>Kit Seda Shampoo 300ml + Condicionador 190ml Toque De Seda</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14f51ab6-ca5c-455e-aa83-646d14dcd66b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d06d82ad-a1a0-43f8-b6de-8ccce325d30f.jpg</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>7891150101616</t>
         </is>
       </c>
     </row>
@@ -4403,17 +5138,22 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Tintura Cor E Ton 50g 7.7 Marrom Dourado</t>
+          <t>Máscara De Tratamento Seda 300g Brilho Ceramidas</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/83160a85-a350-423c-a31e-28f63c7d4c1a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8402bbd7-aa5c-4df7-b669-b042fc46c2d0.jpg</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>7891150101661</t>
         </is>
       </c>
     </row>
@@ -4430,17 +5170,22 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Tintura Cor E Ton 50g 2.0 Preto</t>
+          <t>Máscara De Tratamento Seda 300g Cachos Definidos</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4a30d64-f2a5-40ad-b28e-1aa276bf6b2d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e01a6fda-ba1c-4471-96a3-06449dcf8109.jpg</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>7891150101678</t>
         </is>
       </c>
     </row>
@@ -4457,17 +5202,22 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Condicionador Pantene 3mm 170ml Restauração</t>
+          <t>Máscara De Tratamento Seda 300g Liso Perfeito</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>R$ 36,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf8fd785-06d5-419b-848e-cf9a86a87f0c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0432e952-76e1-45c7-93ad-d047ef20e4cf.jpg</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>7891150101685</t>
         </is>
       </c>
     </row>
@@ -4484,17 +5234,22 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Condicionador Pantene 175ml Cachos Hidra Vitam</t>
+          <t>Máscara De Tratamento Seda 300g Toque De Seda</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fbca68c9-8b8a-4c07-8fd5-32480232468f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f10250ae-8f68-43a7-9902-425f1d039c4a.jpg</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>7891150101579</t>
         </is>
       </c>
     </row>
@@ -4511,17 +5266,22 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Condicionador Tresemme 400ml Detox Capilar</t>
+          <t>Shampoo Seda 300ml Luminous Uv</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>R$ 25,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dcb84968-aa34-4a67-9b16-a3679029e260.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0bccb734-2a92-4e4d-8da3-34cd8a127f3d.jpg</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>7891150099845</t>
         </is>
       </c>
     </row>
@@ -4538,17 +5298,22 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Kit Sh+cond Ox 170ml Nutricao</t>
+          <t>Shampoo Seda 300ml Regeneração Intensa</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53843fc8-f627-4d67-8001-1705e45892e7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b80e9e14-518a-4e68-af37-eabfcca6092a.jpg</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>7891150101715</t>
         </is>
       </c>
     </row>
@@ -4565,17 +5330,22 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Mascara De Cabelo Janinne 400g Hydra</t>
+          <t>Shampoo Seda 300ml Toque De Seda</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cce40fa5-0dd2-4a54-b3a0-1ad03874b932.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bf7b7d29-6d6e-4de2-9390-153a3008565c.jpg</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>7891150101616</t>
         </is>
       </c>
     </row>
@@ -4592,17 +5362,22 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Tintura Cor E Ton 50g 1.0 Preto Azulado</t>
+          <t>Condicionador Dove 150ml Bond Repair+ Peptideo</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8f4811a-f80d-46ad-b0c5-5ea9aecc433e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/66bee424-0dc4-4bf9-a9bb-bf48bdbbeea4.jpg</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>7891150095564</t>
         </is>
       </c>
     </row>
@@ -4619,17 +5394,22 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Shampoo Pantene 175ml Hidrocauterização</t>
+          <t>Condicionador Dove 250ml Bond Repair+ Peptideo</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d438e35f-02a4-4410-bb0f-633cae497375.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/feaaba62-76ba-40ad-80e1-d8f5d6449d2a.jpg</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>7891150095595</t>
         </is>
       </c>
     </row>
@@ -4646,17 +5426,22 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Kit Sh+cond Ox 170ml Cabelos Lisos</t>
+          <t>Condicionador Seda Boom 250ml Hidratração Duradoura</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf89c1b3-9408-4111-a169-402b1de144bd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/60959d1e-e331-4364-acf3-cfa1078f1e52.jpg</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>7891150096257</t>
         </is>
       </c>
     </row>
@@ -4673,17 +5458,22 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Kit Seda Shampoo 300ml + Condicionador 190ml Luminous Uv</t>
+          <t>Condicionador Seda Boom 250ml Nutrição Intensa</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e944b0b6-df19-4bae-a4a3-65ac40888513.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5ec37007-47b5-4607-bf53-8ae53ec86717.jpg</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>7891150096271</t>
         </is>
       </c>
     </row>
@@ -4700,17 +5490,22 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Creme P/pentear Seda 300ml Liso Perfe</t>
+          <t>Geleia Creme Brilho Umidificado Seda Boom 500g Definição Intensa</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 27,99</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e0747515-127c-476e-996f-3cb6211a6467.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f2ee0fb-8fa2-4117-bacb-a7877a195325.jpg</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>7891150096233</t>
         </is>
       </c>
     </row>
@@ -4727,17 +5522,22 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Kit Niely Sh+cond Gold Queratina</t>
+          <t>Geleia Para Fixar Seda Boom 500g Volume Máximo</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 27,99</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a82907a-1613-4c28-ba95-da595968441b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6a78bb8e-1f43-4d00-9020-2e17db505f04.jpg</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>7891150096226</t>
         </is>
       </c>
     </row>
@@ -4754,17 +5554,22 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Shampoo Head E Shoulders 200ml Menthol</t>
+          <t>Shampoo Dove 175ml Bond Repair+ Peptideo</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d0926010-0f0b-4e19-8152-570a008d768b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/81b5c0ad-031a-49d2-87f2-0a9be8c3e2be.jpg</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>7891150095571</t>
         </is>
       </c>
     </row>
@@ -4781,17 +5586,22 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Condicionador Pantene 175ml Hidrocauterização</t>
+          <t>Shampoo Dove 350ml Bond Repair+ Peptideo</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 36,99</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2767f13-23d2-4bc5-9c31-f671f65dae11.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/45b51bd4-a663-4d3a-b7db-b72653e59e7d.jpg</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>7891150095571</t>
         </is>
       </c>
     </row>
@@ -4808,17 +5618,22 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Shampoo Monange 325ml Quimica Sem Drama</t>
+          <t>Shampoo Higienizador Seda Boom 250ml Hidratação Duradoura</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ea43127c-d2b1-428b-a521-f831ce20b6b2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d3a8c31-a433-4353-95fb-0d16606a5caf.jpg</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>7891150096257</t>
         </is>
       </c>
     </row>
@@ -4835,17 +5650,22 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Condiconador Vita Capili 310ml Abacate</t>
+          <t>Creme Modelador Seda Boom 500g Antifrizz</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>R$ 4,93</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5f201167-f73c-4e16-a991-7b30d5bc219b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a8ca12f1-ba8b-406b-a697-01d39db97f97.jpg</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>7891150096295</t>
         </is>
       </c>
     </row>
@@ -4862,17 +5682,22 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Shampoo Elseve 200ml Longo Dos Sonhos</t>
+          <t>Creme Para Pentear Seda Boom 1kg Definição Flexivel</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/06473e81-9800-451c-bdc9-7f756eb6f3f8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/81d8280a-6179-45d2-bb82-320609206efb.jpg</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>7891150095922</t>
         </is>
       </c>
     </row>
@@ -4889,17 +5714,22 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Condicionador Palmolive 350ml Ceramidas</t>
+          <t>Creme Para Pentear Seda Boom 1kg Volumão Power</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df00ddc6-d259-458c-afe3-f62206c73ebc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc44516c-2525-48ff-8e6a-2ba7277148ed.jpg</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>7891150095892</t>
         </is>
       </c>
     </row>
@@ -4916,17 +5746,22 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Tintura Koleston Castanho Claro 50</t>
+          <t>Creme Para Pentear Seda Boom 350ml Volumão Power</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4edee60-0ed0-4f10-afa6-4c1d00e91f21.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95562d32-5ff2-4f88-ae34-7337e7d71006.jpg</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>7891150095885</t>
         </is>
       </c>
     </row>
@@ -4943,17 +5778,22 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Gel Fixador Softfix 500g Aço</t>
+          <t>Máscara Tratamento Intensivo Seda Boom 500g Nutrição Intensa</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b33f542-be83-4c88-84a2-d885afb8e853.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/612f71b4-585d-4307-bec3-aae9b3cd23b4.jpg</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>7891150096271</t>
         </is>
       </c>
     </row>
@@ -4970,17 +5810,22 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Shampoo Barber Shop 3 Em 1 Bigode 500ml</t>
+          <t>Shampoo Anticaspa Clear Men 200ml Hidratação Campeã</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>R$ 19,93</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a41fa80b-95f5-4082-91bf-389ea143f520.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c2257b7e-db77-4186-acd7-c1c8c2a034be.jpg</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>7891150099289</t>
         </is>
       </c>
     </row>
@@ -4997,17 +5842,22 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Condicionador Monange 325ml Restaura Que Gosto</t>
+          <t>Shampoo Anticaspa Clear Men 400ml Hidratação Campeã</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4ee4e51-14f9-413d-b29d-1db23c0cc695.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2831ec0e-fd5d-4029-bf8c-a72811587628.jpg</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>7891150099272</t>
         </is>
       </c>
     </row>
@@ -5024,17 +5874,22 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Amônia Farmax 100 Ml</t>
+          <t>Soro Hidratante Day After Seda Boom Spray 200ml Volumão Power</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f9c9d35-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed7872d2-7489-4bab-8a57-19cec206d9f3.jpg</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>7891150096219</t>
         </is>
       </c>
     </row>
@@ -5051,17 +5906,22 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Condicionador Força E Crescimento Seda 325ml Biotina</t>
+          <t>Emulsão Umidificadora Day After Seda Boom 350ml Definição Intensa</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/353557dc-d390-4d29-89ef-23d113f70c5b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0fd947eb-9cfc-4456-8368-6ea79e759fe8.jpg</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>7891150096387</t>
         </is>
       </c>
     </row>
@@ -5078,17 +5938,22 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Mascara Tratamento Tresemmé 400g Brilho Lamelar</t>
+          <t>Shampoo Dove 190ml Nutrição+ Tri-óleos</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/428ceb45-fa70-486c-8909-4607c8e904a6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9bcec491-cf0f-4b55-b5f0-b851878b617b.jpg</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>7891150102422</t>
         </is>
       </c>
     </row>
@@ -5105,17 +5970,22 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Creme De Tratamento Kolene 500gr</t>
+          <t>Shampoo Dove 190ml Reconstrução+ Aminoácidos</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/12ec9950-e03b-45fc-8eb6-762f61637f92.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/571d4731-0553-45a8-9914-3b79b208d2d8.jpg</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>7891150102637</t>
         </is>
       </c>
     </row>
@@ -5132,17 +6002,22 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Condicionador Pantene 400ml Hidrocauterizacao</t>
+          <t>Shampoo Dove 190ml Uv Repair &amp; Glow+ Ferúlico</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec5015b7-0b49-476b-8492-481ed995ede3.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>7891150102750</t>
         </is>
       </c>
     </row>
@@ -5159,17 +6034,22 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Cr P/ Pentear Pantene 240g Bambu</t>
+          <t>Shampoo Dove 190ml Hidratação+ Hialuron-vit</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ef4a75c-267d-4c15-8f9a-7d547445dd3f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5f1242f4-8920-423c-b0c1-95b24aff4da0.jpg</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>7891150102507</t>
         </is>
       </c>
     </row>
@@ -5186,7 +6066,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Sh Pantene 175ml Colageno</t>
+          <t>Shampoo Dove 190ml Umectação+coco Antioxi</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5196,7 +6076,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/076c2eff-5586-4529-880e-afa80ae59301.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/350b9276-fb71-4b58-a72c-62fe2006b890.jpg</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>7891150102620</t>
         </is>
       </c>
     </row>
@@ -5213,17 +6098,22 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Condicionador Tio Nacho 415ml Antiqueda E Anti Idade</t>
+          <t>Condicionador Dove 150ml Uv Repair &amp; Glow+ Ferúlico</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/63d1dad5-7ed4-4c5a-b0b9-b2d8c8cfdb70.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/190c8a75-fb5a-484b-83d4-f3391a3eb8a5.jpg</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>7891150102750</t>
         </is>
       </c>
     </row>
@@ -5240,17 +6130,22 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Mascara De Cabelo Janinne 400g Curls</t>
+          <t>Condicionador Dove 190ml Nutrição+ Tri-óleos</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/05313aaf-9892-4c24-9f28-32bdb717c8d2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4a2454db-b591-4e2e-a969-f63d12517e6d.jpg</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>7891150102422</t>
         </is>
       </c>
     </row>
@@ -5267,17 +6162,22 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Kit Shampoo 200ml E Condicionador 170ml Ox Hiarulonico</t>
+          <t>Condicionador Dove 190ml Reconstrução+ Aminoácido</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/938497a0-1880-425a-808f-9de86c842a5b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/78aae835-1558-4c1e-b611-d6ada73288b4.jpg</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>7891150102491</t>
         </is>
       </c>
     </row>
@@ -5294,7 +6194,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Kit Shampoo 375ml E Condicionador 170ml Ox Longos</t>
+          <t>Kit Dove Shampoo 350ml + Condicinador 150ml Uv Repair &amp; Glow+ Ferúlico</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5304,7 +6204,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9bed22e0-afb3-4e9d-a15d-0e101fc56496.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/027e9b77-2043-447d-b246-69199ff073f2.jpg</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>7891150102750</t>
         </is>
       </c>
     </row>
@@ -5321,17 +6226,22 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Kit Shampoo 375+condicionador 170ml Elseve Hidratação Hialuronico</t>
+          <t>Condicionador Dove 190ml Hidratação+ Hialuron-vit</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/660605d5-c6e5-46dd-bbc7-0459d6357806.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ffb6322f-7a29-4bbc-b7de-e122b2d83f8c.jpg</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>7891150102507</t>
         </is>
       </c>
     </row>
@@ -5348,3446 +6258,22 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Creme Para Pentear Dove 200ml Reconstrução+9% Queratina</t>
+          <t>Condicionador Dove 200ml Oleo Nutricao</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2d78c1db-2be8-46d4-911c-93bce09b6ac3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Gel Sem Alcool Incolor Soft Fix 1kg</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d2369405-03c1-4a12-93bc-29cbea322925.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Pomada Modeladora Barb Shop Mate 130gr</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30aba049-c4e2-40c3-9b8d-cb89deb35238.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Tintura Probelle Super Bonita 2.0</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/decfbe9a-9271-416f-94c0-7d5416426344.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Sh Pantene 300ml Colageno</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>R$ 34,99</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dd4baf9e-7b28-4d97-a319-4804c715a495.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Gel Cola Barber Shop Softfix 500g Explosao</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c279da92-511b-4e1e-ab9d-1ac18f31e36e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Shampoo Tio Nacho 415ml Clareador Antiqueda</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/08df419c-5d6a-431a-9172-14111639257a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Shampoo Seda 300ml Regeneração Intensa</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b80e9e14-518a-4e68-af37-eabfcca6092a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Tintura Koleston Preto Azulado 28</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe91c1de-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Gel Fixador Softfix 500g Rocha</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51e6855b-b2bb-40e8-85a0-6b304c187b56.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Condicionador Tresemme 400ml Tresplex</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>R$ 25,99</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/681c9894-c514-4ff1-9cb3-782585274fe6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Tintura Cor E Ton 50g 6.7 Chocolate</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15517c85-775a-434d-a555-2018e93ce98a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Creme P/pentear Seda 300ml Preto Lum.</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/daeb7e45-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Creme P/ Pentea Seda 300ml Colageno/vitamina C</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/283e9dc1-2178-40fc-872e-9e6608cd005e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Condicionador Vita Capili 310ml Babosa</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>R$ 4,93</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8dee7dd-005e-4d86-9f2b-7a7c5d6c607d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Condicionador Vita Capili 310ml Bambu</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>R$ 4,93</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/71f9f17b-6bde-4a43-a4f7-38b6d96dfc15.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Tintura Probelle Super Bonita 5.0</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6cc03976-0463-458d-a6bd-0842fe231d39.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Sh Pantene 300ml Equilibrio</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d3ab144b-7cdb-4c2e-8d40-9dd4c0b4fdc4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Creme P/ Pentear Seda Pro Curvatura Boom 350ml Volume Maximo</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc527f4e-59f9-4517-868d-620a8571729b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Shampoo Anticaspa Clear Men 200ml Hidratação Campeã</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c2257b7e-db77-4186-acd7-c1c8c2a034be.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Condicionador Palmolive 350ml Maciez Prolong</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/258adab5-838b-4258-8ae2-a2303a05fe0b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Condicionador Palmolive 350ml Ilumi Pretos</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2e5f7638-5110-469b-a2a2-290da0c5bcd9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Creme De Tratamento Tresemme 400g Blid Paltinum</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/09b2cc00-2abf-4294-abdc-16de2b116869.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Tintura Cor E Ton 50g 8.0 Louro Claro</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a552432d-4c65-437a-bdcb-20534b9f3297.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Gel Bozzano 300gr Fix Brilho Molhado Pra</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5ef2310-90f9-43c8-9158-73181d9fedac.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Tintura Probelle Super Bonita 8.26</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/723d5c09-4d3d-4e4c-9148-667fd2df3e1a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Cond Pantene 250ml Equilibrio Raiz/ponta</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/030a1432-6fe4-42fa-a668-0f55404d4c46.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Mascara De Tratamento Seda 300g By Nina Secrets Colageno E Vitamina C Pote</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/66a9d81a-25e5-4bf7-ac9f-a5d0e7df8b81.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Condicionador Dove 400ml C/ Oleo De Jojoba</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>R$ 24,93</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/122e902d-fdf6-404d-9d9d-17b27449f6e7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Mascara De Cabelo Janinne 400g Repair</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>R$ 23,99</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6a997c6a-8e91-481b-b645-0bff55def1f1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Condicionador Palmolive 350ml Nutri Liss</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4e1d0a44-e139-4bfb-b70b-db206e41065e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Gel S/alcool Soft Bco N4 250g</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/46fde029-aeac-4e26-b41f-08d8b2077921.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>Gel Ny Looks 240g 01 Media Incolor</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e80d88a8-880c-4b85-ac4c-39afa9fcb1af.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Tintura Cor E Ton 50g 6.66 L. Escuro Vermelho</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a6f538e6-23ed-41c7-bd80-aea41848e3f0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Tintura Cor E Ton 50g 3.0 Castanho Escuro</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/77b2d117-abeb-4350-84c4-77d76d432736.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Tintur Cor E Ton 50g 4.0 Castanho Medio</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e881be2b-fbe7-4438-b058-4b6acdd06a1b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Tintura Cor E Ton 50g 7.0 Louro Medio</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1a536963-070c-4729-a766-8cde943058e9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Tintura Koleston Louro Escuro 60</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9ebb65e9-7cfd-476f-a5ca-800048e915c3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Tintura Koleston Louro Medio 70</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/01e76bca-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Tintura Probelle Super Bonita 1.0</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d9a9887c-9745-4338-ad54-8f1784858962.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Tintura Probelle Super Bonita 9.98</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a9d194f-cc8c-4187-810b-3a6a3bb0a641.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Shampoo Tio Nacho 415ml Antiqueda E Anti Idade</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eef5677c-e113-4293-b0cc-0384120c1b21.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Sérum De Tratamento Tresemmé Frasco 170ml Brilho Lamelar</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>R$ 24,93</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/43a0f103-7c28-4385-9422-8f502d109fcc.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>Shampoo Baby Jhonson &amp; Johnson 400ml Cabelos Claros</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5dadca2a-445c-4f39-b566-833307edba37.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Gel Premium Prof Softfix 1kg</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e0fd5acd-bc50-43d3-8118-1fd4f13e79ec.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>Tintura Cor E Ton 50g 5.0 Castanho Claro</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/72545755-7650-46dc-9b18-a49c01d32862.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>Gel Fixador Softfix 500g Super Cola</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8571ed62-1a6b-41c5-8f69-f68ad83f9810.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Condiconador Vita Capili 310ml Lavanda</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>R$ 4,93</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f5a6263-5932-45a6-90bb-43f63e9d2cdb.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>Tintura Probelle Super Bonita 4.0</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/44542a7d-0bb6-4126-b3a3-756447d33832.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>Cond Pantene 250ml Colageno</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9be1ad9-9ed8-4db4-93f7-fe234b7be101.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>Creme Para Pentear Seda Pro Curvatura Boom 350ml Definição Intensa</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6767c30b-ec08-42dd-9a44-b9be8b1937c8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>Condicinador Elseve 200ml Longo Dos Sonhos</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c9724ccd-74a5-486c-9501-bba701a7b1da.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Spray Hair Karina 400ml Ext Forte</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>R$ 34,99</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3ca6e6f5-369c-451c-8c5e-22fe4a72b745.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Gel Fixador Clear Pote 300g Controle De Caspa</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1b37857-df8f-46a1-b932-636176dcfaf8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Condicionador Tio Nacho 415ml Clareador Antiqueda</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/805f4bfe-0ae2-4817-8a11-471d3931000a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Condicionador Tresemmé 400ml Brilho Lamelar</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>R$ 25,99</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2aab5c66-dcfb-4a59-adb4-ea6fefff30a6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Tintura Probelle Super Bonita 3.0</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d5527ac-8dff-4fbe-83c9-f84cc8f417e5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Tintura Probelle Super Bonita 6.4</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1827c292-f328-4d28-8c93-152d3960e31e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>Tintura Probelle Super Bonita 10.0</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/678e0dc3-e86b-4613-8bda-9562fe9a3929.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Cond Pantene 150ml Queilibrio Raiz/ponta</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>R$ 23,99</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/08df6d27-6ff6-4fa9-9a71-9cb3ca37eb56.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Condicionador Kids Cheirinho 200ml</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>R$ 28,99</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4c11de0a-fdfc-433b-a78d-93ca85913749.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Kit Shampoo 200ml E Condicionador 170ml Opack Colageno</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>R$ 34,99</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0b9701e3-178d-40b0-8876-4ae9b0febe9d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Condicionador Seda 300ml Luminous Uv</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/28fdcacf-c817-4cdd-8a57-6158fad6b0e0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Creme Para Pentear Seda 300ml Luminous Uv</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f16d118-3765-47a3-a1de-0222532c7a63.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>Máscara De Tratamento Seda 300g Liso Perfeito</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0432e952-76e1-45c7-93ad-d047ef20e4cf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>Máscara De Tratamento Seda 300g Toque De Seda</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f10250ae-8f68-43a7-9902-425f1d039c4a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>Shampoo Dove 350ml Bond Repair+ Peptideo</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>R$ 36,99</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/45b51bd4-a663-4d3a-b7db-b72653e59e7d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>Gel Cola Softfix 250g Branco</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>R$ 6,93</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/803bfabe-bdbe-4b24-9248-507f26bfd154.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>Gel Fixador Softfix 500g Cola Fightfix</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d152f587-345b-4d85-8752-974ad705ba3e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>Gel Softix S/alcool 240gr Rocha</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>R$ 6,93</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3cb078d0-cac5-4980-aa34-3267a9874c20.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>Escova De Cabelo Heloisa Marco Boni</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/60c37319-6e96-4e65-ae4e-bc43404739be.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>Mini Escova Almofadada P/ Bolsa Marco Boni</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9022cbf5-39e5-4ffa-ba06-3f9458ddc71b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>Tintura Probelle Super Bonita 7.0</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/91cb2ab0-89bb-4641-801a-095aefadd1c6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>Shampoo Tresemmé Frasco 400ml Brilho Lamelar</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a3aebc89-a082-46ea-95e8-936c5cece3c3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>Cera Wax Hair Jhow Hair 150g Teia</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>R$ 7,93</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>Condicionador Seda 250ml Toque De Seda</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/10e2ebc4-b85c-4917-af98-222bc5086604.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>Condicionador Tresemmé 400ml Blindagem Antiumidade</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c466c900-7722-4927-bfb6-9bcc6c6f1512.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>Creme Para Pentear Seda 300ml Toque De Seda</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a06976e1-297f-4369-a08c-b8f7e68b93b0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>Condicionador Seda Boom 250ml Hidratração Duradoura</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/60959d1e-e331-4364-acf3-cfa1078f1e52.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>Condicionador Seda Boom 250ml Nutrição Intensa</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5ec37007-47b5-4607-bf53-8ae53ec86717.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>Geleia Para Fixar Seda Boom 500g Volume Máximo</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>R$ 27,99</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6a78bb8e-1f43-4d00-9020-2e17db505f04.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>Creme Para Pentear Seda Boom 1kg Definição Flexivel</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>R$ 26,99</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/81d8280a-6179-45d2-bb82-320609206efb.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Creme Para Pentear Seda Pro Curvatura Boom 1kg Definição Intensa</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>R$ 26,99</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3beb6190-4cd3-41d7-94c6-56ac1241f0c5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>Soro Hidratante Day After Seda Boom Spray 200ml Volumão Power</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed7872d2-7489-4bab-8a57-19cec206d9f3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>Kit Escovinha E Pente Baby Marco Boni</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>R$ 10,93</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eec2387b-1bf8-4af8-aee4-6b116b2df5c7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>Tintura Probelle Super Bonita 2.8</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d7171e89-e6bf-4a3c-9ba8-57a1059f0053.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>Kit Tresemmé Shampoo 350ml + Condicionador 175ml Hidratação Profunda</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6492b744-3738-44a3-804c-42f1a70b86dd.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Kit Tresemmé Shampoo 350ml + Condicionador 175ml Reconstrução</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3ac2d9a0-0616-4969-96f6-a91dfc61e813.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>Cera Wax Hair Jhow Hair 150g Black</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Gel Jhow Hair 240g Hiper Bomder</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>Cera Wax Hair Jhow Hair 150g Matte</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>Cera Wax Hair Ultra Fixadora Jhow Hair 150g Master 10</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>R$ 7,93</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>Cera Wax Hair Ultra Fixadora Jhow Hair 150g Black</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>R$ 7,93</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>Cera Wax Hair Ultra Fixadora Jhow Hair 150g Incolor</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>Gel Cola Jhow Hair 240g Black</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>R$ 5,93</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b35e6cbe-14a3-43c0-9b01-4042ac7e969c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>Gel Cola Jhow Hair 490g Black</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>R$ 8,93</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>Kit Shampoo+condicionador Softbeauty 300ml Acido Hialuronico</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>Escova Raquete Grande Nolita Marco Boni Cores Diversas</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd33cfef-1832-441a-8278-6e466a426307.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>Pente Dentes Medios Coconut Marco Boni</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/08e64ccf-7a8a-4582-aca9-62525b8b9cfc.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>Condicionador Seda 250ml Regeneração Intensa</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c6cb4fb-e472-4a2e-b28a-2ec97493b977.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>Máscara De Tratamento Seda 300g Luminous Uv</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ac3a3ce-79b9-4f7a-9c6f-6202c80d9ecd.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>Máscara De Tratamento Seda 300g Brilho Ceramidas</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8402bbd7-aa5c-4df7-b669-b042fc46c2d0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>Máscara De Tratamento Seda 300g Cachos Definidos</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e01a6fda-ba1c-4471-96a3-06449dcf8109.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>Shampoo Seda 300ml Luminous Uv</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0bccb734-2a92-4e4d-8da3-34cd8a127f3d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>Shampoo Seda 300ml Toque De Seda</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bf7b7d29-6d6e-4de2-9390-153a3008565c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>Condicionador Dove 150ml Bond Repair+ Peptideo</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/66bee424-0dc4-4bf9-a9bb-bf48bdbbeea4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>Condicionador Dove 250ml Bond Repair+ Peptideo</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>R$ 28,99</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/feaaba62-76ba-40ad-80e1-d8f5d6449d2a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>Geleia Creme Brilho Umidificado Seda Boom 500g Definição Intensa</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>R$ 27,99</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f2ee0fb-8fa2-4117-bacb-a7877a195325.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>Shampoo Dove 175ml Bond Repair+ Peptideo</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/81b5c0ad-031a-49d2-87f2-0a9be8c3e2be.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>Shampoo Higienizador Seda Boom 250ml Hidratação Duradoura</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d3a8c31-a433-4353-95fb-0d16606a5caf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>Creme Modelador Seda Boom 500g Antifrizz</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a8ca12f1-ba8b-406b-a697-01d39db97f97.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>Creme Para Pentear Seda Boom 1kg Volumão Power</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>R$ 26,99</t>
-        </is>
-      </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc44516c-2525-48ff-8e6a-2ba7277148ed.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>Creme Para Pentear Seda Boom 350ml Volumão Power</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95562d32-5ff2-4f88-ae34-7337e7d71006.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>Máscara Tratamento Intensivo Seda Boom 500g Nutrição Intensa</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/612f71b4-585d-4307-bec3-aae9b3cd23b4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>Shampoo Anticaspa Clear Men 400ml Hidratação Campeã</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2831ec0e-fd5d-4029-bf8c-a72811587628.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>Emulsão Umidificadora Day After Seda Boom 350ml Definição Intensa</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0fd947eb-9cfc-4456-8368-6ea79e759fe8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>Shampoo Dove 190ml Nutrição+ Tri-óleos</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9bcec491-cf0f-4b55-b5f0-b851878b617b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>Shampoo Dove 190ml Reconstrução+ Aminoácidos</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/571d4731-0553-45a8-9914-3b79b208d2d8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>Shampoo Dove 190ml Uv Repair &amp; Glow+ Ferúlico</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>Shampoo Dove 190ml Hidratação+ Hialuron-vit</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5f1242f4-8920-423c-b0c1-95b24aff4da0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>Shampoo Dove 190ml Umectação+coco Antioxi</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/350b9276-fb71-4b58-a72c-62fe2006b890.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>Condicionador Dove 150ml Uv Repair &amp; Glow+ Ferúlico</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/190c8a75-fb5a-484b-83d4-f3391a3eb8a5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>Condicionador Dove 190ml Nutrição+ Tri-óleos</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4a2454db-b591-4e2e-a969-f63d12517e6d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>Condicionador Dove 190ml Reconstrução+ Aminoácido</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/78aae835-1558-4c1e-b611-d6ada73288b4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>Condicionador Dove 190ml Umectação+ Coco Antioxi</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4b443072-fdf2-49ae-8777-69d812baaf64.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>Kit Dove Shampoo 350ml + Condicinador 150ml Uv Repair &amp; Glow+ Ferúlico</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>R$ 34,99</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/027e9b77-2043-447d-b246-69199ff073f2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>Shampoo Dove 370ml Cachos Ativos+ Biotina</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>R$ 36,99</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4dce4138-a3af-450e-9118-dc857fe01a32.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>Cuidados com cabelo</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>Condicionador Dove 190ml Hidratação+ Hialuron-vit</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ffb6322f-7a29-4bbc-b7de-e122b2d83f8c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/995e4fc4-9311-4164-980b-005f7e9416b9.jpg</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>7891150055193</t>
         </is>
       </c>
     </row>
